--- a/excel-reader/testdata/test1.xlsx
+++ b/excel-reader/testdata/test1.xlsx
@@ -7,52 +7,53 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Пивний двір" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>https://www.rust-lang.org</t>
-  </si>
-  <si>
-    <t>Rust</t>
-  </si>
-  <si>
-    <t>Merged cells</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>назва</t>
+  </si>
+  <si>
+    <t>кількість</t>
+  </si>
+  <si>
+    <t>ціна приходу</t>
+  </si>
+  <si>
+    <t>сума</t>
+  </si>
+  <si>
+    <t>ціна продажу</t>
+  </si>
+  <si>
+    <t>пиво ЛЬВІВСЬКЕ світле 0.5 л ск/б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пиво ЛЬВІВСЬКЕ 1715 1 л </t>
+  </si>
+  <si>
+    <t>пиво ЛЬВІВСЬКЕ оксамит 0.5 л з/б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -71,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -79,41 +80,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,75 +382,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="D2" s="2">
+        <f> B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50.15</v>
+      </c>
+      <c r="D3" s="2">
+        <f> B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <f>SIN(PI()/4)</f>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30.35</v>
+      </c>
+      <c r="D4" s="2">
+        <f> B4*C4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="E4" s="2">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:B10"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>